--- a/数据整理/stocks/其他/TJX-TJX公司.xlsx
+++ b/数据整理/stocks/其他/TJX-TJX公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/TJX-TJX公司.xlsx
+++ b/数据整理/stocks/其他/TJX-TJX公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/TJX-TJX公司.xlsx
+++ b/数据整理/stocks/其他/TJX-TJX公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/TJX-TJX公司.xlsx
+++ b/数据整理/stocks/其他/TJX-TJX公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1384,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/TJX-TJX公司.xlsx
+++ b/数据整理/stocks/其他/TJX-TJX公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1433,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1555,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1571,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/TJX-TJX公司.xlsx
+++ b/数据整理/stocks/其他/TJX-TJX公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5">
@@ -1555,14 +1726,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -1571,14 +1742,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -1587,13 +1758,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/TJX-TJX公司.xlsx
+++ b/数据整理/stocks/其他/TJX-TJX公司.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0547</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0547</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009975</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -688,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0585</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -726,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0585</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -764,26 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -858,22 +836,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -896,22 +874,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -934,22 +912,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -988,7 +966,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1028,22 +1006,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1071,17 +1049,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1104,22 +1082,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1158,7 +1136,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1198,22 +1176,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.0654</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1241,17 +1219,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0702</t>
+          <t>0.0654</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1274,22 +1252,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1328,7 +1306,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1368,22 +1346,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1406,22 +1384,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1444,22 +1422,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1498,7 +1476,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1538,26 +1516,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1576,26 +1554,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0521</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1614,26 +1592,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1647,144 +1625,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.12</v>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/TJX-TJX公司.xlsx
+++ b/数据整理/stocks/其他/TJX-TJX公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国品质消费股票（LOF）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0836</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0521</t>
+          <t>0.0666</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -836,26 +853,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +891,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -912,26 +929,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -996,32 +1013,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1034,32 +1051,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0702</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1082,22 +1099,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1136,7 +1153,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1176,22 +1193,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1219,17 +1236,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1252,22 +1269,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1336,32 +1353,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.0654</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1374,32 +1391,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.0654</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1422,22 +1439,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1516,22 +1533,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0585</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1554,22 +1571,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0585</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1592,22 +1609,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1620,6 +1637,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/TJX-TJX公司.xlsx
+++ b/数据整理/stocks/其他/TJX-TJX公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -601,7 +602,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -611,8 +612,194 @@
         <v>0.12</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002423</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +870,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0836</t>
+          <t>0.1112</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -726,17 +913,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0666</t>
+          <t>0.0824</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +946,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0288</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -848,31 +1035,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国品质消费股票（LOF）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0836</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -886,31 +1073,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0521</t>
+          <t>0.0666</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -924,31 +1111,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币C</t>
+          <t>华宝标普美国品质消费股票（LOF）人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1023,26 +1210,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1061,26 +1248,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0597</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1099,26 +1286,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0129</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1183,32 +1370,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1221,32 +1408,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0702</t>
+          <t>0.0597</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1269,22 +1456,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1323,7 +1510,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1363,22 +1550,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1406,17 +1593,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0654</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1439,22 +1626,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1523,32 +1710,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002423</t>
+          <t>162415</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
+          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.0654</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1561,32 +1748,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162415</t>
+          <t>002423</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝标普美国消费(QDII-LOF)人民币A</t>
+          <t>华宝兴业标普美国消费(QDII-LOF)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0619</t>
+          <t>0.0654</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1609,22 +1796,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0066</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1703,22 +1890,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0585</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1741,22 +1928,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0585</t>
+          <t>0.0619</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1779,22 +1966,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1814,51 +2001,51 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1873,22 +2060,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1896,7 +2083,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1911,22 +2098,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1934,7 +2121,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1954,17 +2141,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1972,6 +2159,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>